--- a/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W5_H200_B16.xlsx
+++ b/final_project/gru_gbrbm_H_div_2 (drop 0.2)/type1/pd_results_W5_H200_B16.xlsx
@@ -518,7 +518,7 @@
         <v>0.7120622568093384</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5287009063444109</v>
+        <v>0.4682779456193353</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -526,19 +526,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.1964960516156954</v>
+        <v>0.2412978260144116</v>
       </c>
       <c r="J2" t="n">
-        <v>2619.652452299039</v>
+        <v>3228.872456209923</v>
       </c>
       <c r="K2" t="n">
-        <v>9352846.356096825</v>
+        <v>13902595.31211582</v>
       </c>
       <c r="L2" t="n">
-        <v>3058.242363858173</v>
+        <v>3728.618418679474</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.7484530017802953</v>
+        <v>-1.598998591499359</v>
       </c>
     </row>
   </sheetData>
